--- a/BangKeHoachDoAn1.xlsx
+++ b/BangKeHoachDoAn1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -45,36 +45,6 @@
     <t>KẾ HOẠCH THỰC HIỆN ĐỒ ÁN 1 - 2019</t>
   </si>
   <si>
-    <t>20/9/2019</t>
-  </si>
-  <si>
-    <t>Tạo Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Triển khai Database </t>
-  </si>
-  <si>
-    <t>24/9/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 22/9/2019</t>
-  </si>
-  <si>
-    <t>23/9/2019</t>
-  </si>
-  <si>
-    <t>Dựng mô hình Database</t>
-  </si>
-  <si>
-    <t>28/9/2019</t>
-  </si>
-  <si>
-    <t>Thiết kế Phần Mềm VS</t>
-  </si>
-  <si>
-    <t>30/9/2019</t>
-  </si>
-  <si>
     <t>Đào Sơn Tùng</t>
   </si>
   <si>
@@ -84,25 +54,46 @@
     <t>Đề tài: Xây dựng ứng dụng quản lí chăm sóc xe</t>
   </si>
   <si>
-    <t>Khảo sát thành phần trung tâm bảo hành, trung tâm chăm sóc xe</t>
-  </si>
-  <si>
-    <t>Kết nối project với Database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoàn thiện project, đóng gói sản phẩm  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chạy chương trình , chỉnh sửa </t>
-  </si>
-  <si>
     <t xml:space="preserve">Hoàn thiện đồ án </t>
   </si>
   <si>
     <t>Thiết kế, coder WindowForm</t>
   </si>
   <si>
-    <t>Thiết lập server client</t>
+    <t>Tạo Database, Dựng mô hình Database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triển khai </t>
+  </si>
+  <si>
+    <t>Tìm hiểu về client server</t>
+  </si>
+  <si>
+    <t>20/9/2020</t>
+  </si>
+  <si>
+    <t>30/10/2019</t>
+  </si>
+  <si>
+    <t>31/10/2019</t>
+  </si>
+  <si>
+    <t>29/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiết kế </t>
+  </si>
+  <si>
+    <t>Hoàn Thiện Sản Phẩm</t>
+  </si>
+  <si>
+    <t>Kết nối WindowForm với Database</t>
+  </si>
+  <si>
+    <t>Chỉnh Sữa</t>
+  </si>
+  <si>
+    <t>Chạy chương trình với client server</t>
   </si>
 </sst>
 </file>
@@ -559,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1001"/>
+  <dimension ref="A1:W999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -604,7 +595,7 @@
     </row>
     <row r="2" spans="1:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -637,10 +628,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
@@ -672,7 +663,7 @@
     </row>
     <row r="4" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -699,20 +690,24 @@
     </row>
     <row r="5" spans="1:23" s="16" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7" t="s">
-        <v>8</v>
+      <c r="E5" s="7">
+        <v>43728</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>12</v>
+      <c r="F5" s="7">
+        <v>43738</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="G5" s="7">
+        <v>43735</v>
+      </c>
+      <c r="H5" s="7">
+        <v>43743</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
@@ -729,21 +724,19 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="16" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
+      <c r="F6" s="7">
+        <v>44110</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -764,19 +757,14 @@
       <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>14</v>
+      <c r="A7" s="16" t="s">
+        <v>20</v>
       </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="10"/>
-      <c r="D7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="8"/>
@@ -796,11 +784,21 @@
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7">
+        <v>43745</v>
+      </c>
+      <c r="F8" s="7">
+        <v>43750</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
@@ -820,14 +818,21 @@
       <c r="W8" s="8"/>
     </row>
     <row r="9" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>16</v>
+      <c r="B9" s="9" t="s">
+        <v>22</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="C9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43751</v>
+      </c>
+      <c r="F9" s="7">
+        <v>43753</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
@@ -847,21 +852,14 @@
       <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>26</v>
+      <c r="A10" s="16" t="s">
+        <v>21</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7">
-        <v>43743</v>
-      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
@@ -882,17 +880,19 @@
     </row>
     <row r="11" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="7">
-        <v>43744</v>
+        <v>43754</v>
       </c>
       <c r="F11" s="7">
-        <v>43751</v>
+        <v>43758</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
@@ -914,7 +914,7 @@
     </row>
     <row r="12" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>6</v>
@@ -923,10 +923,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="7">
-        <v>43752</v>
+        <v>43759</v>
       </c>
-      <c r="F12" s="7">
-        <v>43758</v>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -948,7 +948,7 @@
     </row>
     <row r="13" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
@@ -956,11 +956,11 @@
       <c r="D13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="7">
-        <v>43759</v>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
       </c>
-      <c r="F13" s="7">
-        <v>43762</v>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -981,21 +981,11 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="7">
-        <v>43763</v>
-      </c>
-      <c r="F14" s="7">
-        <v>43766</v>
-      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
@@ -1015,21 +1005,11 @@
       <c r="W14" s="8"/>
     </row>
     <row r="15" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="7">
-        <v>43767</v>
-      </c>
-      <c r="F15" s="7">
-        <v>43768</v>
-      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="8"/>
@@ -1264,55 +1244,47 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
     </row>
-    <row r="25" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-    </row>
-    <row r="26" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-    </row>
-    <row r="27" spans="2:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+    </row>
+    <row r="26" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+    </row>
+    <row r="27" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1339,7 +1311,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="14"/>
+      <c r="H28" s="12"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -20772,46 +20744,6 @@
       <c r="R999" s="13"/>
       <c r="S999" s="13"/>
     </row>
-    <row r="1000" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1000" s="1"/>
-      <c r="C1000" s="11"/>
-      <c r="D1000" s="11"/>
-      <c r="E1000" s="12"/>
-      <c r="F1000" s="12"/>
-      <c r="G1000" s="12"/>
-      <c r="H1000" s="12"/>
-      <c r="I1000" s="13"/>
-      <c r="J1000" s="13"/>
-      <c r="K1000" s="13"/>
-      <c r="L1000" s="13"/>
-      <c r="M1000" s="13"/>
-      <c r="N1000" s="13"/>
-      <c r="O1000" s="13"/>
-      <c r="P1000" s="13"/>
-      <c r="Q1000" s="13"/>
-      <c r="R1000" s="13"/>
-      <c r="S1000" s="13"/>
-    </row>
-    <row r="1001" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1001" s="1"/>
-      <c r="C1001" s="11"/>
-      <c r="D1001" s="11"/>
-      <c r="E1001" s="12"/>
-      <c r="F1001" s="12"/>
-      <c r="G1001" s="12"/>
-      <c r="H1001" s="12"/>
-      <c r="I1001" s="13"/>
-      <c r="J1001" s="13"/>
-      <c r="K1001" s="13"/>
-      <c r="L1001" s="13"/>
-      <c r="M1001" s="13"/>
-      <c r="N1001" s="13"/>
-      <c r="O1001" s="13"/>
-      <c r="P1001" s="13"/>
-      <c r="Q1001" s="13"/>
-      <c r="R1001" s="13"/>
-      <c r="S1001" s="13"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>

--- a/BangKeHoachDoAn1.xlsx
+++ b/BangKeHoachDoAn1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Chạy chương trình với client server</t>
+  </si>
+  <si>
+    <t>Lập mô hình quản lí chăm sóc xe</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W999"/>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -688,11 +691,13 @@
       <c r="V4" s="8"/>
       <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:23" s="16" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
       </c>
@@ -700,13 +705,13 @@
         <v>43728</v>
       </c>
       <c r="F5" s="7">
-        <v>43738</v>
+        <v>43733</v>
       </c>
       <c r="G5" s="7">
-        <v>43735</v>
+        <v>43750</v>
       </c>
       <c r="H5" s="7">
-        <v>43743</v>
+        <v>43751</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
@@ -724,22 +729,26 @@
       <c r="V5" s="8"/>
       <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" s="16" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" s="16" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
-        <v>16</v>
+      <c r="E6" s="7">
+        <v>43728</v>
       </c>
       <c r="F6" s="7">
-        <v>44110</v>
+        <v>43738</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6" s="7">
+        <v>43735</v>
+      </c>
+      <c r="H6" s="7">
+        <v>43743</v>
+      </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -756,17 +765,26 @@
       <c r="V6" s="8"/>
       <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>20</v>
+    <row r="7" spans="1:23" s="16" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>15</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7">
+        <v>44110</v>
+      </c>
+      <c r="G7" s="7">
+        <v>43728</v>
+      </c>
+      <c r="H7" s="7">
+        <v>43745</v>
+      </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -784,21 +802,14 @@
       <c r="W7" s="8"/>
     </row>
     <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>12</v>
+      <c r="A8" s="16" t="s">
+        <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7">
-        <v>43745</v>
-      </c>
-      <c r="F8" s="7">
-        <v>43750</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="8"/>
@@ -819,7 +830,7 @@
     </row>
     <row r="9" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>6</v>
@@ -828,12 +839,14 @@
         <v>6</v>
       </c>
       <c r="E9" s="7">
-        <v>43751</v>
+        <v>43745</v>
       </c>
       <c r="F9" s="7">
-        <v>43753</v>
+        <v>43750</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>43745</v>
+      </c>
       <c r="H9" s="7"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
@@ -852,14 +865,21 @@
       <c r="W9" s="8"/>
     </row>
     <row r="10" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>21</v>
+      <c r="B10" s="9" t="s">
+        <v>22</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="C10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7">
+        <v>43751</v>
+      </c>
+      <c r="F10" s="7">
+        <v>43753</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="8"/>
@@ -879,21 +899,14 @@
       <c r="W10" s="8"/>
     </row>
     <row r="11" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>24</v>
+      <c r="A11" s="16" t="s">
+        <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="7">
-        <v>43754</v>
-      </c>
-      <c r="F11" s="7">
-        <v>43758</v>
-      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="8"/>
@@ -914,7 +927,7 @@
     </row>
     <row r="12" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>6</v>
@@ -923,10 +936,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="7">
-        <v>43759</v>
+        <v>43754</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
+      <c r="F12" s="7">
+        <v>43758</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -948,7 +961,7 @@
     </row>
     <row r="13" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
@@ -956,11 +969,11 @@
       <c r="D13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>17</v>
+      <c r="E13" s="7">
+        <v>43759</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -981,11 +994,21 @@
       <c r="W13" s="8"/>
     </row>
     <row r="14" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
@@ -1244,34 +1267,38 @@
       <c r="V24" s="8"/>
       <c r="W24" s="8"/>
     </row>
-    <row r="25" spans="2:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-    </row>
-    <row r="26" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+    </row>
+    <row r="26" spans="2:23" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
@@ -1291,7 +1318,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -20744,6 +20771,26 @@
       <c r="R999" s="13"/>
       <c r="S999" s="13"/>
     </row>
+    <row r="1000" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1000" s="1"/>
+      <c r="C1000" s="11"/>
+      <c r="D1000" s="11"/>
+      <c r="E1000" s="12"/>
+      <c r="F1000" s="12"/>
+      <c r="G1000" s="12"/>
+      <c r="H1000" s="12"/>
+      <c r="I1000" s="13"/>
+      <c r="J1000" s="13"/>
+      <c r="K1000" s="13"/>
+      <c r="L1000" s="13"/>
+      <c r="M1000" s="13"/>
+      <c r="N1000" s="13"/>
+      <c r="O1000" s="13"/>
+      <c r="P1000" s="13"/>
+      <c r="Q1000" s="13"/>
+      <c r="R1000" s="13"/>
+      <c r="S1000" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>

--- a/BangKeHoachDoAn1.xlsx
+++ b/BangKeHoachDoAn1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>DANH SÁCH CÔNG VIỆC</t>
   </si>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t>20/9/2020</t>
-  </si>
-  <si>
-    <t>30/10/2019</t>
-  </si>
-  <si>
-    <t>31/10/2019</t>
-  </si>
-  <si>
-    <t>29/10/2019</t>
   </si>
   <si>
     <t xml:space="preserve">Thiết kế </t>
@@ -556,7 +547,7 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -693,7 +684,7 @@
     </row>
     <row r="5" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>6</v>
@@ -803,7 +794,7 @@
     </row>
     <row r="8" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -842,12 +833,14 @@
         <v>43745</v>
       </c>
       <c r="F9" s="7">
-        <v>43750</v>
+        <v>43763</v>
       </c>
       <c r="G9" s="7">
         <v>43745</v>
       </c>
-      <c r="H9" s="7"/>
+      <c r="H9" s="7">
+        <v>43779</v>
+      </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -866,7 +859,7 @@
     </row>
     <row r="10" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>6</v>
@@ -878,10 +871,14 @@
         <v>43751</v>
       </c>
       <c r="F10" s="7">
-        <v>43753</v>
+        <v>43763</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="G10" s="7">
+        <v>43746</v>
+      </c>
+      <c r="H10" s="7">
+        <v>43748</v>
+      </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
@@ -900,7 +897,7 @@
     </row>
     <row r="11" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -927,7 +924,7 @@
     </row>
     <row r="12" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>6</v>
@@ -936,10 +933,10 @@
         <v>6</v>
       </c>
       <c r="E12" s="7">
-        <v>43754</v>
+        <v>43764</v>
       </c>
       <c r="F12" s="7">
-        <v>43758</v>
+        <v>43769</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -961,7 +958,7 @@
     </row>
     <row r="13" spans="1:23" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
@@ -970,12 +967,14 @@
         <v>6</v>
       </c>
       <c r="E13" s="7">
-        <v>43759</v>
+        <v>43770</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
+      <c r="F13" s="7">
+        <v>43778</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>43778</v>
+      </c>
       <c r="H13" s="7"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1003,11 +1002,11 @@
       <c r="D14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>17</v>
+      <c r="E14" s="7">
+        <v>43779</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>18</v>
+      <c r="F14" s="7">
+        <v>43780</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>

--- a/BangKeHoachDoAn1.xlsx
+++ b/BangKeHoachDoAn1.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -938,8 +938,12 @@
       <c r="F12" s="7">
         <v>43769</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="G12" s="7">
+        <v>43783</v>
+      </c>
+      <c r="H12" s="7">
+        <v>43787</v>
+      </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
@@ -975,7 +979,9 @@
       <c r="G13" s="7">
         <v>43778</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>43787</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1008,8 +1014,12 @@
       <c r="F14" s="7">
         <v>43780</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14" s="7">
+        <v>43783</v>
+      </c>
+      <c r="H14" s="7">
+        <v>43787</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>

--- a/BangKeHoachDoAn1.xlsx
+++ b/BangKeHoachDoAn1.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -979,9 +979,7 @@
       <c r="G13" s="7">
         <v>43778</v>
       </c>
-      <c r="H13" s="7">
-        <v>43787</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1017,9 +1015,7 @@
       <c r="G14" s="7">
         <v>43783</v>
       </c>
-      <c r="H14" s="7">
-        <v>43787</v>
-      </c>
+      <c r="H14" s="7"/>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>

--- a/BangKeHoachDoAn1.xlsx
+++ b/BangKeHoachDoAn1.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="A6" sqref="A6:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -979,7 +979,9 @@
       <c r="G13" s="7">
         <v>43778</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>43789</v>
+      </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
@@ -1015,7 +1017,9 @@
       <c r="G14" s="7">
         <v>43783</v>
       </c>
-      <c r="H14" s="7"/>
+      <c r="H14" s="7">
+        <v>43794</v>
+      </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
